--- a/BVNSA/Informe_Reportos_Privados.xlsx
+++ b/BVNSA/Informe_Reportos_Privados.xlsx
@@ -225,7 +225,7 @@
       </c>
       <c t="inlineStr" s="2" r="B2">
         <is>
-          <t>Reportos Privados del 17/11/2022</t>
+          <t>Reportos Privados del 07/12/2022</t>
         </is>
       </c>
     </row>
